--- a/rekapan_pesanan.xlsx
+++ b/rekapan_pesanan.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Pembelian" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +24,27 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,11 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,51 +429,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="13.81640625" customWidth="1" min="1" max="1"/>
+    <col width="15.08984375" customWidth="1" min="2" max="2"/>
+    <col width="29.26953125" customWidth="1" min="3" max="3"/>
+    <col width="13.90625" customWidth="1" min="4" max="4"/>
+    <col width="15.26953125" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="17.6328125" customWidth="1" min="7" max="7"/>
+    <col width="17.453125" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nama Barista</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Nama Pembeli</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Menu</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total Harga</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Diskon</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Harga Bayar</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Uang Pembayaran</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Uang Kembali</t>
         </is>
@@ -466,132 +492,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>b</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'Espresso': (2, 'Hot', 'Less Sugar')}</t>
+          <t>{'Espresso': (1, 'Ice', 'Less Sugar')}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'Espresso': (2, 'Ice', 'Normal')}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>24000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'Espresso': (1, 'Ice', 'Normal')}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'Espresso': (1, 'Hot', 'Normal')}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H5" t="n">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/rekapan_pesanan.xlsx
+++ b/rekapan_pesanan.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -521,6 +521,70 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'Espresso': (1, 'Ice', 'Normal')}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'Espresso': (1, 'Hot', 'Normal')}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
